--- a/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn CNTT\DoAn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DuLieu\BaiTap\DoAnCNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2726437-9C5E-4753-A3D6-83DBEAD63D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E09EFF-BA38-4CAB-BB90-D7DBA776752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Nguyễn Hoàng Phúc</t>
+  </si>
+  <si>
+    <t>Test chỉnh sửa</t>
   </si>
 </sst>
 </file>
@@ -1330,23 +1333,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="13" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="25.85546875" style="15" customWidth="1"/>
-    <col min="11" max="26" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="30.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="25.88671875" style="15" customWidth="1"/>
+    <col min="11" max="26" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1363,7 @@
       <c r="I1" s="57"/>
       <c r="J1" s="58"/>
     </row>
-    <row r="2" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52"/>
       <c r="B2" s="53" t="s">
         <v>33</v>
@@ -1374,7 +1377,7 @@
       <c r="I2" s="57"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="53" t="s">
         <v>34</v>
@@ -1388,7 +1391,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="54" t="s">
         <v>29</v>
@@ -1408,7 +1411,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="55" t="s">
@@ -1426,7 +1429,7 @@
       <c r="I5" s="49"/>
       <c r="J5" s="50"/>
     </row>
-    <row r="6" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -1438,7 +1441,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="50"/>
     </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1470,11 +1473,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="39"/>
       <c r="D8" s="31" t="s">
         <v>7</v>
@@ -1510,7 +1515,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>3</v>
       </c>
@@ -1574,7 +1579,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>4</v>
       </c>
@@ -1616,7 +1621,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -1640,7 +1645,7 @@
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>7</v>
       </c>
@@ -1702,7 +1707,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>8</v>
       </c>
@@ -1740,7 +1745,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>9</v>
       </c>
@@ -1776,7 +1781,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>10</v>
       </c>
@@ -1812,7 +1817,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>11</v>
       </c>
@@ -1848,7 +1853,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -1868,7 +1873,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>13</v>
       </c>
@@ -1908,7 +1913,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>14</v>
       </c>
@@ -1946,7 +1951,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>15</v>
       </c>
@@ -1984,7 +1989,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>16</v>
       </c>
@@ -2022,7 +2027,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>17</v>
       </c>
@@ -2060,7 +2065,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="11" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="11" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>18</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
         <v>19</v>
       </c>
@@ -2136,7 +2141,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37">
         <v>20</v>
       </c>
@@ -2174,7 +2179,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>1</v>
       </c>

--- a/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn CNTT\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1196ED1-7212-4282-BBFA-B007009662DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1365F6D4-89A2-46E2-98AA-5233BE833799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Nguyễn Hoàng Phúc</t>
   </si>
   <si>
-    <t>Game Wolf Marathon</t>
-  </si>
-  <si>
     <t>https://github.com/HungTran2101/CNTTProject2021/tree/master</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Background web</t>
   </si>
   <si>
-    <t>Trang trí background cho web</t>
-  </si>
-  <si>
     <t>Form cho người chơi đăng nhập với tài khoản cá nhân</t>
   </si>
   <si>
@@ -138,75 +132,18 @@
     <t>Web Information</t>
   </si>
   <si>
-    <t>Thông tin game, thông tin liên lạc,…v..v</t>
-  </si>
-  <si>
     <t>Lưu trữ tài khoản, trang phục của người chơi</t>
   </si>
   <si>
     <t>Để lấy thông tin khi thao tác trên web</t>
   </si>
   <si>
-    <t>Lưu thông tin người chơi mới hoặc truy vấn người chơi cũ</t>
-  </si>
-  <si>
-    <t>Nút người dùng thao tác</t>
-  </si>
-  <si>
-    <t>Mở form Store</t>
-  </si>
-  <si>
     <t>Nạp dữ liệu trang phục từ database theo tài khoản đăng nhập</t>
   </si>
   <si>
-    <t>Button Clear data / Mute sound</t>
-  </si>
-  <si>
-    <t>Button Login / Sign in</t>
-  </si>
-  <si>
-    <t>Button Store</t>
-  </si>
-  <si>
     <t>OnLoad Store</t>
   </si>
   <si>
-    <t>Button Select Skins</t>
-  </si>
-  <si>
-    <t>Lựa chọn trang phục theo nhân vật</t>
-  </si>
-  <si>
-    <t>Button Buy / Equip</t>
-  </si>
-  <si>
-    <t>Mua hoặc trang bị trang phục</t>
-  </si>
-  <si>
-    <t>Button Restart</t>
-  </si>
-  <si>
-    <t>Khởi chạy lại game sau khi thua</t>
-  </si>
-  <si>
-    <t>Quay lại màn hình chính từ cửa hàng</t>
-  </si>
-  <si>
-    <t>Button Back Store</t>
-  </si>
-  <si>
-    <t>Button Back Gameover</t>
-  </si>
-  <si>
-    <t>Quay lại màn hình chính sau khi thua</t>
-  </si>
-  <si>
-    <t>Button Pause</t>
-  </si>
-  <si>
-    <t>Tạm dừng màn chơi</t>
-  </si>
-  <si>
     <t>Game Mechanic</t>
   </si>
   <si>
@@ -232,6 +169,27 @@
   </si>
   <si>
     <t>Viết báo cáo đồ án</t>
+  </si>
+  <si>
+    <t>Game Wolf Marathon trên Web</t>
+  </si>
+  <si>
+    <t>Phân tích cấu trúc web, các điểm nổi bật,…v…v</t>
+  </si>
+  <si>
+    <t>Phân tích các web game</t>
+  </si>
+  <si>
+    <t>Thiết kế nền website</t>
+  </si>
+  <si>
+    <t>Thông tin game, thông tin liên lạc, hướng dẫn chơi…v..v</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Các nút chức năng như: đăng nhập, đăng ký, start game,…v…v</t>
   </si>
 </sst>
 </file>
@@ -329,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -412,13 +370,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -466,6 +437,45 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,50 +488,26 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1236,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,50 +1239,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1349,60 +1335,58 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="33">
-        <v>44442</v>
-      </c>
-      <c r="H8" s="33">
-        <v>44443</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="E8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1421,52 +1405,52 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29" t="s">
+      <c r="B9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="33">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="40">
+        <v>44442</v>
+      </c>
+      <c r="H9" s="40">
         <v>44443</v>
       </c>
-      <c r="H9" s="33">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="40">
+        <v>44443</v>
+      </c>
+      <c r="H10" s="40">
         <v>44444</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="33">
-        <v>44444</v>
-      </c>
-      <c r="H10" s="33">
-        <v>44448</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1485,30 +1469,28 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <v>4</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="33">
+      <c r="F11" s="38"/>
+      <c r="G11" s="40">
         <v>44444</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="40">
         <v>44448</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1527,80 +1509,80 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="40">
+        <v>44444</v>
+      </c>
+      <c r="H12" s="40">
+        <v>44448</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>6</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33">
+      <c r="B13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40">
         <v>44448</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H13" s="40">
         <v>44450</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>7</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="33">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="40">
         <v>44450</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H14" s="40">
         <v>44452</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>7</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="33">
-        <v>44452</v>
-      </c>
-      <c r="H14" s="33">
-        <v>44454</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1619,28 +1601,30 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="21">
         <v>8</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="33">
+      <c r="F15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="40">
+        <v>44452</v>
+      </c>
+      <c r="H15" s="40">
         <v>44454</v>
       </c>
-      <c r="H15" s="33">
-        <v>44456</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1659,28 +1643,28 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <v>9</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
+      <c r="B16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="33">
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="40">
+        <v>44454</v>
+      </c>
+      <c r="H16" s="40">
         <v>44456</v>
       </c>
-      <c r="H16" s="33">
-        <v>44457</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1699,28 +1683,28 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <v>10</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="B17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="33">
+      <c r="F17" s="38"/>
+      <c r="G17" s="40">
+        <v>44456</v>
+      </c>
+      <c r="H17" s="40">
         <v>44457</v>
       </c>
-      <c r="H17" s="33">
-        <v>44461</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1739,30 +1723,28 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="21">
         <v>11</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="B18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="33">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="40">
+        <v>44457</v>
+      </c>
+      <c r="H18" s="40">
         <v>44461</v>
       </c>
-      <c r="H18" s="33">
-        <v>44464</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1781,56 +1763,56 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="26">
         <v>12</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="28" t="s">
+      <c r="B19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="33">
+      <c r="F19" s="38"/>
+      <c r="G19" s="40">
+        <v>44461</v>
+      </c>
+      <c r="H19" s="40">
         <v>44464</v>
       </c>
-      <c r="H19" s="33">
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>13</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="40">
+        <v>44464</v>
+      </c>
+      <c r="H20" s="40">
         <v>44469</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>13</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="33">
-        <v>44469</v>
-      </c>
-      <c r="H20" s="33">
-        <v>44471</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1849,30 +1831,30 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="21">
         <v>14</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29" t="s">
+      <c r="B21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="33">
+      <c r="F21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="40">
+        <v>44469</v>
+      </c>
+      <c r="H21" s="40">
         <v>44471</v>
       </c>
-      <c r="H21" s="33">
-        <v>44474</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1891,30 +1873,32 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="21">
         <v>15</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="B22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
-        <v>44474</v>
-      </c>
-      <c r="H22" s="33">
-        <v>44477</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="G22" s="40">
+        <v>44471</v>
+      </c>
+      <c r="H22" s="40">
+        <v>44489</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1933,30 +1917,32 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <v>16</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="B23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="33">
-        <v>44477</v>
-      </c>
-      <c r="H23" s="33">
-        <v>44480</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="G23" s="40">
+        <v>44489</v>
+      </c>
+      <c r="H23" s="40">
+        <v>44514</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1975,30 +1961,16 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>17</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="33">
-        <v>44480</v>
-      </c>
-      <c r="H24" s="33">
-        <v>44483</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2017,30 +1989,16 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" s="4" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>18</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="33">
-        <v>44483</v>
-      </c>
-      <c r="H25" s="33">
-        <v>44486</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2059,28 +2017,16 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>19</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="33">
-        <v>44486</v>
-      </c>
-      <c r="H26" s="33">
-        <v>44489</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2099,28 +2045,16 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
-        <v>20</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="33">
-        <v>44489</v>
-      </c>
-      <c r="H27" s="33">
-        <v>44492</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2139,28 +2073,16 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
-        <v>21</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="33">
-        <v>44492</v>
-      </c>
-      <c r="H28" s="33">
-        <v>44495</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2179,140 +2101,100 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
-        <v>22</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="33">
-        <v>44495</v>
-      </c>
-      <c r="H29" s="33">
-        <v>44499</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>23</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="33">
-        <v>44499</v>
-      </c>
-      <c r="H30" s="33">
-        <v>44514</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
-        <v>24</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
-        <v>25</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
-        <v>26</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
-        <v>27</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
-        <v>28</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
-        <v>29</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn CNTT\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1365F6D4-89A2-46E2-98AA-5233BE833799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2F79A-B3C3-4F11-A0A8-4103668E0AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,6 +476,27 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,27 +508,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,50 +1239,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1370,21 +1370,21 @@
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="2"/>
@@ -1414,15 +1414,15 @@
       <c r="C9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="40">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36">
         <v>44442</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="36">
         <v>44443</v>
       </c>
       <c r="I9" s="25"/>
@@ -1438,15 +1438,15 @@
       <c r="C10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40">
+      <c r="F10" s="34"/>
+      <c r="G10" s="36">
         <v>44443</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="36">
         <v>44444</v>
       </c>
       <c r="I10" s="25"/>
@@ -1478,15 +1478,15 @@
       <c r="C11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40">
+      <c r="F11" s="34"/>
+      <c r="G11" s="36">
         <v>44444</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="36">
         <v>44448</v>
       </c>
       <c r="I11" s="29"/>
@@ -1518,17 +1518,17 @@
       <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="36">
         <v>44444</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="36">
         <v>44448</v>
       </c>
       <c r="I12" s="25"/>
@@ -1544,17 +1544,17 @@
       <c r="C13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40">
+      <c r="F13" s="34"/>
+      <c r="G13" s="36">
         <v>44448</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="36">
         <v>44450</v>
       </c>
       <c r="I13" s="25"/>
@@ -1570,15 +1570,15 @@
       <c r="C14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="40">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36">
         <v>44450</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="36">
         <v>44452</v>
       </c>
       <c r="I14" s="25"/>
@@ -1610,17 +1610,17 @@
       <c r="C15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="36">
         <v>44452</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <v>44454</v>
       </c>
       <c r="I15" s="25"/>
@@ -1652,15 +1652,15 @@
       <c r="C16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="36">
         <v>44454</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="36">
         <v>44456</v>
       </c>
       <c r="I16" s="25"/>
@@ -1692,15 +1692,15 @@
       <c r="C17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="40">
+      <c r="F17" s="34"/>
+      <c r="G17" s="36">
         <v>44456</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="36">
         <v>44457</v>
       </c>
       <c r="I17" s="25"/>
@@ -1727,20 +1727,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="40">
+      <c r="E18" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36">
         <v>44457</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="36">
         <v>44461</v>
       </c>
       <c r="I18" s="25"/>
@@ -1772,17 +1774,15 @@
       <c r="C19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="40">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36">
         <v>44461</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="36">
         <v>44464</v>
       </c>
       <c r="I19" s="25"/>
@@ -1793,22 +1793,22 @@
         <v>13</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="40">
+      <c r="F20" s="34"/>
+      <c r="G20" s="36">
         <v>44464</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="36">
         <v>44469</v>
       </c>
       <c r="I20" s="25"/>
@@ -1835,22 +1835,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="36">
         <v>44469</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="36">
         <v>44471</v>
       </c>
       <c r="I21" s="25"/>
@@ -1877,24 +1877,24 @@
         <v>15</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="36">
         <v>44471</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="36">
         <v>44489</v>
       </c>
       <c r="I22" s="25"/>
@@ -1926,19 +1926,19 @@
       <c r="C23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="36">
         <v>44489</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="36">
         <v>44514</v>
       </c>
       <c r="I23" s="25"/>
@@ -1964,11 +1964,11 @@
       <c r="A24" s="21"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="2"/>
@@ -1992,11 +1992,11 @@
       <c r="A25" s="21"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="2"/>
@@ -2020,11 +2020,11 @@
       <c r="A26" s="21"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="2"/>
@@ -2048,11 +2048,11 @@
       <c r="A27" s="21"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="2"/>
@@ -2076,11 +2076,11 @@
       <c r="A28" s="21"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="2"/>
@@ -2104,11 +2104,11 @@
       <c r="A29" s="21"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
     </row>
@@ -2116,11 +2116,11 @@
       <c r="A30" s="21"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>

--- a/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn CNTT\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2F79A-B3C3-4F11-A0A8-4103668E0AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3F4C4-1F3D-4A77-BB70-9F52708B0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Nguyễn Hoàng Phúc</t>
   </si>
   <si>
-    <t>https://github.com/HungTran2101/CNTTProject2021/tree/master</t>
-  </si>
-  <si>
     <t>Form Login</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>OnLoad Store</t>
   </si>
   <si>
-    <t>Game Mechanic</t>
-  </si>
-  <si>
     <t>Link Database to Web</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Create Database</t>
   </si>
   <si>
-    <t>Cơ chế chơi của game, khoảng cách nhảy, độ khó, vật cản,..v..v</t>
-  </si>
-  <si>
     <t>Draw Characters</t>
   </si>
   <si>
@@ -171,15 +162,9 @@
     <t>Viết báo cáo đồ án</t>
   </si>
   <si>
-    <t>Game Wolf Marathon trên Web</t>
-  </si>
-  <si>
     <t>Phân tích cấu trúc web, các điểm nổi bật,…v…v</t>
   </si>
   <si>
-    <t>Phân tích các web game</t>
-  </si>
-  <si>
     <t>Thiết kế nền website</t>
   </si>
   <si>
@@ -189,7 +174,22 @@
     <t>Buttons</t>
   </si>
   <si>
-    <t>Các nút chức năng như: đăng nhập, đăng ký, start game,…v…v</t>
+    <t>Phân tích, tham khảo web game khác</t>
+  </si>
+  <si>
+    <t>Game trên Web</t>
+  </si>
+  <si>
+    <t>https://github.com/HungTran2101/CNTTProject2021</t>
+  </si>
+  <si>
+    <t>Setup Game Mechanic</t>
+  </si>
+  <si>
+    <t>Cài đặt cơ chế game, khoảng cách nhảy, độ khó, vật cản,..v..v</t>
+  </si>
+  <si>
+    <t>Các nút chức năng như: đăng nhập, đăng ký, start game,..v..v</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,6 +508,9 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1223,16 +1226,16 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23" style="7" customWidth="1"/>
     <col min="6" max="6" width="33.140625" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="25.85546875" style="7" customWidth="1"/>
     <col min="11" max="26" width="8.85546875" style="1"/>
@@ -1258,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -1274,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -1371,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>6</v>
@@ -1383,10 +1386,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="G8" s="41">
+        <v>44441</v>
+      </c>
+      <c r="H8" s="36">
+        <v>44442</v>
+      </c>
+      <c r="I8" s="29">
+        <v>44445</v>
+      </c>
+      <c r="J8" s="29">
+        <v>44445</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1409,10 +1420,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>6</v>
@@ -1425,18 +1436,22 @@
       <c r="H9" s="36">
         <v>44443</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="29">
+        <v>44446</v>
+      </c>
+      <c r="J9" s="36">
+        <v>44448</v>
+      </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>3</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="34" t="s">
@@ -1449,8 +1464,12 @@
       <c r="H10" s="36">
         <v>44444</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="29">
+        <v>44447</v>
+      </c>
+      <c r="J10" s="29">
+        <v>44449</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1473,15 +1492,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>6</v>
       </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="36">
         <v>44444</v>
@@ -1489,8 +1508,12 @@
       <c r="H11" s="36">
         <v>44448</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="I11" s="29">
+        <v>44447</v>
+      </c>
+      <c r="J11" s="29">
+        <v>44451</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1513,15 +1536,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
         <v>5</v>
       </c>
@@ -1531,18 +1554,22 @@
       <c r="H12" s="36">
         <v>44448</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="I12" s="36">
+        <v>44448</v>
+      </c>
+      <c r="J12" s="29">
+        <v>44451</v>
+      </c>
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>6</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>6</v>
@@ -1557,23 +1584,29 @@
       <c r="H13" s="36">
         <v>44450</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="29">
+        <v>44452</v>
+      </c>
+      <c r="J13" s="29">
+        <v>44454</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>7</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="34"/>
       <c r="G14" s="36">
         <v>44450</v>
@@ -1581,8 +1614,12 @@
       <c r="H14" s="36">
         <v>44452</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="29">
+        <v>44452</v>
+      </c>
+      <c r="J14" s="29">
+        <v>44454</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1605,15 +1642,15 @@
         <v>8</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
         <v>4</v>
       </c>
@@ -1623,8 +1660,12 @@
       <c r="H15" s="36">
         <v>44454</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="I15" s="29">
+        <v>44453</v>
+      </c>
+      <c r="J15" s="29">
+        <v>44455</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1647,15 +1688,15 @@
         <v>9</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="36">
         <v>44454</v>
@@ -1663,8 +1704,12 @@
       <c r="H16" s="36">
         <v>44456</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="29">
+        <v>44454</v>
+      </c>
+      <c r="J16" s="29">
+        <v>44456</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1690,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="34" t="s">
@@ -1727,9 +1772,9 @@
         <v>11</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -1745,7 +1790,9 @@
       <c r="H18" s="36">
         <v>44461</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="29">
+        <v>44452</v>
+      </c>
       <c r="J18" s="25"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1768,11 +1815,11 @@
       <c r="A19" s="26">
         <v>12</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>44</v>
+      <c r="B19" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>6</v>
@@ -1785,7 +1832,9 @@
       <c r="H19" s="36">
         <v>44464</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="29">
+        <v>44457</v>
+      </c>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,17 +1842,15 @@
         <v>13</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="36">
         <v>44464</v>
@@ -1835,10 +1882,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="34" t="s">
@@ -1877,10 +1924,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>6</v>
@@ -1921,10 +1968,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>6</v>

--- a/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-19110213-19110268.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn CNTT\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3F4C4-1F3D-4A77-BB70-9F52708B0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6949B1-0688-4E7A-8A90-557134C40009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,6 +497,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -508,9 +511,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,50 +1242,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:26" s="12" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1386,7 +1386,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="35"/>
-      <c r="G8" s="41">
+      <c r="G8" s="37">
         <v>44441</v>
       </c>
       <c r="H8" s="36">
@@ -1748,8 +1748,12 @@
       <c r="H17" s="36">
         <v>44457</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="I17" s="29">
+        <v>44459</v>
+      </c>
+      <c r="J17" s="29">
+        <v>44460</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1793,7 +1797,9 @@
       <c r="I18" s="29">
         <v>44452</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="29">
+        <v>44453</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1835,7 +1841,9 @@
       <c r="I19" s="29">
         <v>44457</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="29">
+        <v>44459</v>
+      </c>
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
@@ -1858,8 +1866,12 @@
       <c r="H20" s="36">
         <v>44469</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="I20" s="29">
+        <v>44449</v>
+      </c>
+      <c r="J20" s="29">
+        <v>44449</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1900,8 +1912,12 @@
       <c r="H21" s="36">
         <v>44471</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="I21" s="29">
+        <v>44494</v>
+      </c>
+      <c r="J21" s="29">
+        <v>44494</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1944,8 +1960,12 @@
       <c r="H22" s="36">
         <v>44489</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="I22" s="29">
+        <v>44486</v>
+      </c>
+      <c r="J22" s="29">
+        <v>44486</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1988,8 +2008,12 @@
       <c r="H23" s="36">
         <v>44514</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="I23" s="29">
+        <v>44527</v>
+      </c>
+      <c r="J23" s="29">
+        <v>44528</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
